--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H2">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I2">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J2">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N2">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O2">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P2">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q2">
-        <v>0.1926640363324444</v>
+        <v>5.301929337777778</v>
       </c>
       <c r="R2">
-        <v>1.733976326992</v>
+        <v>47.71736404</v>
       </c>
       <c r="S2">
-        <v>5.892819223005186E-05</v>
+        <v>0.002312617042617276</v>
       </c>
       <c r="T2">
-        <v>5.892819223005189E-05</v>
+        <v>0.002312617042617275</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H3">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I3">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J3">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>111.38229</v>
       </c>
       <c r="O3">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P3">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q3">
-        <v>45.95034296196</v>
+        <v>60.30544100687999</v>
       </c>
       <c r="R3">
-        <v>413.5530866576401</v>
+        <v>542.7489690619199</v>
       </c>
       <c r="S3">
-        <v>0.01405436476181208</v>
+        <v>0.02630427185087973</v>
       </c>
       <c r="T3">
-        <v>0.01405436476181209</v>
+        <v>0.02630427185087973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H4">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I4">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J4">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N4">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O4">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P4">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q4">
-        <v>21.95890222933422</v>
+        <v>24.48608393995733</v>
       </c>
       <c r="R4">
-        <v>197.630120064008</v>
+        <v>220.374755459616</v>
       </c>
       <c r="S4">
-        <v>0.006716346425434115</v>
+        <v>0.01068043940590065</v>
       </c>
       <c r="T4">
-        <v>0.006716346425434117</v>
+        <v>0.01068043940590065</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H5">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I5">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J5">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N5">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O5">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P5">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q5">
-        <v>29.63701532024</v>
+        <v>50.48898259107911</v>
       </c>
       <c r="R5">
-        <v>266.73313788216</v>
+        <v>454.400843319712</v>
       </c>
       <c r="S5">
-        <v>0.009064772902933277</v>
+        <v>0.02202248920455726</v>
       </c>
       <c r="T5">
-        <v>0.009064772902933281</v>
+        <v>0.02202248920455725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H6">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I6">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J6">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N6">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O6">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P6">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q6">
-        <v>6.037653154113332</v>
+        <v>9.025475529911111</v>
       </c>
       <c r="R6">
-        <v>54.33887838702</v>
+        <v>81.22927976919999</v>
       </c>
       <c r="S6">
-        <v>0.001846675656011132</v>
+        <v>0.00393676852301204</v>
       </c>
       <c r="T6">
-        <v>0.001846675656011133</v>
+        <v>0.003936768523012039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H7">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I7">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J7">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N7">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O7">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P7">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q7">
-        <v>23.36291459922978</v>
+        <v>46.66640226047644</v>
       </c>
       <c r="R7">
-        <v>210.266231393068</v>
+        <v>419.997620344288</v>
       </c>
       <c r="S7">
-        <v>0.007145777430833659</v>
+        <v>0.02035514061197293</v>
       </c>
       <c r="T7">
-        <v>0.007145777430833661</v>
+        <v>0.02035514061197293</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>10.933347</v>
       </c>
       <c r="I8">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J8">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N8">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O8">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P8">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q8">
-        <v>0.5673338054626667</v>
+        <v>11.89608894416667</v>
       </c>
       <c r="R8">
-        <v>5.106004249164</v>
+        <v>107.0648004975</v>
       </c>
       <c r="S8">
-        <v>0.0001735246296263802</v>
+        <v>0.005188884324946822</v>
       </c>
       <c r="T8">
-        <v>0.0001735246296263802</v>
+        <v>0.005188884324946822</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.933347</v>
       </c>
       <c r="I9">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J9">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>111.38229</v>
       </c>
       <c r="O9">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P9">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q9">
         <v>135.30902513607</v>
@@ -1013,10 +1013,10 @@
         <v>1217.78122622463</v>
       </c>
       <c r="S9">
-        <v>0.04138559741331715</v>
+        <v>0.05901963938296462</v>
       </c>
       <c r="T9">
-        <v>0.04138559741331717</v>
+        <v>0.05901963938296462</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.933347</v>
       </c>
       <c r="I10">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J10">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N10">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O10">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P10">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q10">
-        <v>64.66192550878735</v>
+        <v>54.94011969728601</v>
       </c>
       <c r="R10">
-        <v>581.957329579086</v>
+        <v>494.4610772755741</v>
       </c>
       <c r="S10">
-        <v>0.01977748649349482</v>
+        <v>0.02396400424088452</v>
       </c>
       <c r="T10">
-        <v>0.01977748649349483</v>
+        <v>0.02396400424088452</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.933347</v>
       </c>
       <c r="I11">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J11">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N11">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O11">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P11">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q11">
-        <v>87.27150642258</v>
+        <v>113.2835595005687</v>
       </c>
       <c r="R11">
-        <v>785.4435578032201</v>
+        <v>1019.552035505118</v>
       </c>
       <c r="S11">
-        <v>0.0266928494003007</v>
+        <v>0.04941248244910953</v>
       </c>
       <c r="T11">
-        <v>0.0266928494003007</v>
+        <v>0.04941248244910953</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.933347</v>
       </c>
       <c r="I12">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J12">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N12">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O12">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P12">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q12">
-        <v>17.778952445885</v>
+        <v>20.25071494299167</v>
       </c>
       <c r="R12">
-        <v>160.010572012965</v>
+        <v>182.256434486925</v>
       </c>
       <c r="S12">
-        <v>0.005437867633854994</v>
+        <v>0.008833038978594884</v>
       </c>
       <c r="T12">
-        <v>0.005437867633854995</v>
+        <v>0.008833038978594884</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.933347</v>
       </c>
       <c r="I13">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J13">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N13">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O13">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P13">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q13">
-        <v>68.79629171377567</v>
+        <v>104.7067278017647</v>
       </c>
       <c r="R13">
-        <v>619.166625423981</v>
+        <v>942.3605502158821</v>
       </c>
       <c r="S13">
-        <v>0.02104202309884547</v>
+        <v>0.04567140521200178</v>
       </c>
       <c r="T13">
-        <v>0.02104202309884547</v>
+        <v>0.04567140521200178</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H14">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I14">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J14">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N14">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O14">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P14">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q14">
-        <v>0.2602028447604445</v>
+        <v>8.948952288888888</v>
       </c>
       <c r="R14">
-        <v>2.341825602844</v>
+        <v>80.5405706</v>
       </c>
       <c r="S14">
-        <v>7.958560168640933E-05</v>
+        <v>0.003903390305372784</v>
       </c>
       <c r="T14">
-        <v>7.958560168640935E-05</v>
+        <v>0.003903390305372784</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H15">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I15">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J15">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>111.38229</v>
       </c>
       <c r="O15">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P15">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q15">
-        <v>62.05833835947001</v>
+        <v>101.7875720232</v>
       </c>
       <c r="R15">
-        <v>558.5250452352301</v>
+        <v>916.0881482087999</v>
       </c>
       <c r="S15">
-        <v>0.01898115373236691</v>
+        <v>0.04439811600471994</v>
       </c>
       <c r="T15">
-        <v>0.01898115373236691</v>
+        <v>0.04439811600471994</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H16">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I16">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J16">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N16">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O16">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P16">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q16">
-        <v>29.65664447115623</v>
+        <v>41.32925638202667</v>
       </c>
       <c r="R16">
-        <v>266.9098002404061</v>
+        <v>371.96330743824</v>
       </c>
       <c r="S16">
-        <v>0.009070776671983921</v>
+        <v>0.01802716267581077</v>
       </c>
       <c r="T16">
-        <v>0.009070776671983923</v>
+        <v>0.01802716267581077</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H17">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I17">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J17">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N17">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O17">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P17">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q17">
-        <v>40.02633726218001</v>
+        <v>85.21869446707557</v>
       </c>
       <c r="R17">
-        <v>360.2370353596201</v>
+        <v>766.9682502036801</v>
       </c>
       <c r="S17">
-        <v>0.0122424492985328</v>
+        <v>0.03717103579067235</v>
       </c>
       <c r="T17">
-        <v>0.0122424492985328</v>
+        <v>0.03717103579067235</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H18">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I18">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J18">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N18">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O18">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P18">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q18">
-        <v>8.154165957918334</v>
+        <v>15.23380353755556</v>
       </c>
       <c r="R18">
-        <v>73.38749362126501</v>
+        <v>137.104231838</v>
       </c>
       <c r="S18">
-        <v>0.002494031933468007</v>
+        <v>0.006644742213709023</v>
       </c>
       <c r="T18">
-        <v>0.002494031933468007</v>
+        <v>0.006644742213709023</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H19">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I19">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J19">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N19">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O19">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P19">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q19">
-        <v>31.55283651446678</v>
+        <v>78.76668675070222</v>
       </c>
       <c r="R19">
-        <v>283.975528630201</v>
+        <v>708.90018075632</v>
       </c>
       <c r="S19">
-        <v>0.00965074567585391</v>
+        <v>0.03435677289628283</v>
       </c>
       <c r="T19">
-        <v>0.00965074567585391</v>
+        <v>0.03435677289628283</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H20">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I20">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J20">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N20">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O20">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P20">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q20">
-        <v>2.853228131248444</v>
+        <v>7.652087991666666</v>
       </c>
       <c r="R20">
-        <v>25.679053181236</v>
+        <v>68.868791925</v>
       </c>
       <c r="S20">
-        <v>0.0008726879130897048</v>
+        <v>0.003337718776265791</v>
       </c>
       <c r="T20">
-        <v>0.000872687913089705</v>
+        <v>0.003337718776265791</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H21">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I21">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J21">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>111.38229</v>
       </c>
       <c r="O21">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P21">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q21">
-        <v>680.4944694159301</v>
+        <v>87.03672032609998</v>
       </c>
       <c r="R21">
-        <v>6124.45022474337</v>
+        <v>783.3304829348999</v>
       </c>
       <c r="S21">
-        <v>0.2081359327281789</v>
+        <v>0.03796402968358247</v>
       </c>
       <c r="T21">
-        <v>0.208135932728179</v>
+        <v>0.03796402968358247</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H22">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I22">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J22">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N22">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O22">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P22">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q22">
-        <v>325.1969530211683</v>
+        <v>35.33990306978</v>
       </c>
       <c r="R22">
-        <v>2926.772577190514</v>
+        <v>318.05912762802</v>
       </c>
       <c r="S22">
-        <v>0.09946468954482023</v>
+        <v>0.01541470225589063</v>
       </c>
       <c r="T22">
-        <v>0.09946468954482024</v>
+        <v>0.01541470225589063</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H23">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I23">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J23">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N23">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O23">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P23">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q23">
-        <v>438.90477666542</v>
+        <v>72.86897142212668</v>
       </c>
       <c r="R23">
-        <v>3950.14298998878</v>
+        <v>655.82074279914</v>
       </c>
       <c r="S23">
-        <v>0.1342433468247255</v>
+        <v>0.03178428350375434</v>
       </c>
       <c r="T23">
-        <v>0.1342433468247255</v>
+        <v>0.03178428350375434</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H24">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I24">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J24">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N24">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O24">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P24">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q24">
-        <v>89.41368692344832</v>
+        <v>13.02615114641667</v>
       </c>
       <c r="R24">
-        <v>804.723182311035</v>
+        <v>117.23536031775</v>
       </c>
       <c r="S24">
-        <v>0.02734805639559492</v>
+        <v>0.005681799439737153</v>
       </c>
       <c r="T24">
-        <v>0.02734805639559492</v>
+        <v>0.005681799439737153</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H25">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I25">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J25">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N25">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O25">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P25">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q25">
-        <v>345.9894562130688</v>
+        <v>67.35197578120666</v>
       </c>
       <c r="R25">
-        <v>3113.905105917619</v>
+        <v>606.1677820308599</v>
       </c>
       <c r="S25">
-        <v>0.1058242813418179</v>
+        <v>0.02937785796874627</v>
       </c>
       <c r="T25">
-        <v>0.105824281341818</v>
+        <v>0.02937785796874627</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H26">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I26">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J26">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N26">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O26">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P26">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q26">
-        <v>0.7219748144497777</v>
+        <v>13.97890799583333</v>
       </c>
       <c r="R26">
-        <v>6.497773330047999</v>
+        <v>125.8101719625</v>
       </c>
       <c r="S26">
-        <v>0.0002208231046179325</v>
+        <v>0.006097376786596858</v>
       </c>
       <c r="T26">
-        <v>0.0002208231046179326</v>
+        <v>0.006097376786596858</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H27">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I27">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J27">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>111.38229</v>
       </c>
       <c r="O27">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P27">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q27">
-        <v>172.19088193824</v>
+        <v>158.99951843505</v>
       </c>
       <c r="R27">
-        <v>1549.71793744416</v>
+        <v>1430.99566591545</v>
       </c>
       <c r="S27">
-        <v>0.05266627640671953</v>
+        <v>0.06935305483625216</v>
       </c>
       <c r="T27">
-        <v>0.05266627640671954</v>
+        <v>0.06935305483625216</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H28">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I28">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J28">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N28">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O28">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P28">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q28">
-        <v>82.2871495082169</v>
+        <v>64.55927508049</v>
       </c>
       <c r="R28">
-        <v>740.584345573952</v>
+        <v>581.03347572441</v>
       </c>
       <c r="S28">
-        <v>0.02516833476859246</v>
+        <v>0.02815972645020862</v>
       </c>
       <c r="T28">
-        <v>0.02516833476859247</v>
+        <v>0.02815972645020862</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H29">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I29">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J29">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N29">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O29">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P29">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q29">
-        <v>111.05953681856</v>
+        <v>133.1177383702633</v>
       </c>
       <c r="R29">
-        <v>999.5358313670399</v>
+        <v>1198.05964533237</v>
       </c>
       <c r="S29">
-        <v>0.03396865268270378</v>
+        <v>0.05806383503382741</v>
       </c>
       <c r="T29">
-        <v>0.03396865268270378</v>
+        <v>0.05806383503382741</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H30">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I30">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J30">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N30">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O30">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P30">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q30">
-        <v>22.62505031365333</v>
+        <v>23.79629829320833</v>
       </c>
       <c r="R30">
-        <v>203.62545282288</v>
+        <v>214.166684638875</v>
       </c>
       <c r="S30">
-        <v>0.006920094375044712</v>
+        <v>0.01037956590480395</v>
       </c>
       <c r="T30">
-        <v>0.006920094375044714</v>
+        <v>0.01037956590480395</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H31">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I31">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J31">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N31">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O31">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P31">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q31">
-        <v>87.54844055939911</v>
+        <v>123.0392376314033</v>
       </c>
       <c r="R31">
-        <v>787.935965034592</v>
+        <v>1107.35313868263</v>
       </c>
       <c r="S31">
-        <v>0.02677755243237763</v>
+        <v>0.05366775370421702</v>
       </c>
       <c r="T31">
-        <v>0.02677755243237764</v>
+        <v>0.05366775370421702</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H32">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I32">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J32">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N32">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O32">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P32">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q32">
-        <v>0.3590722429031111</v>
+        <v>14.15197628861111</v>
       </c>
       <c r="R32">
-        <v>3.231650186128</v>
+        <v>127.3677865975</v>
       </c>
       <c r="S32">
-        <v>0.0001098257804469509</v>
+        <v>0.006172866416487385</v>
       </c>
       <c r="T32">
-        <v>0.0001098257804469509</v>
+        <v>0.006172866416487384</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H33">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I33">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J33">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>111.38229</v>
       </c>
       <c r="O33">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P33">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q33">
-        <v>85.63867457364</v>
+        <v>160.96803952527</v>
       </c>
       <c r="R33">
-        <v>770.74807116276</v>
+        <v>1448.71235572743</v>
       </c>
       <c r="S33">
-        <v>0.02619343170457849</v>
+        <v>0.07021169234949795</v>
       </c>
       <c r="T33">
-        <v>0.0261934317045785</v>
+        <v>0.07021169234949795</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H34">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I34">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J34">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N34">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O34">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P34">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q34">
-        <v>40.92529371476355</v>
+        <v>65.35856237277935</v>
       </c>
       <c r="R34">
-        <v>368.327643432872</v>
+        <v>588.227061355014</v>
       </c>
       <c r="S34">
-        <v>0.01251740397950336</v>
+        <v>0.02850836282318422</v>
       </c>
       <c r="T34">
-        <v>0.01251740397950336</v>
+        <v>0.02850836282318422</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H35">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I35">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J35">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N35">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O35">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P35">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q35">
-        <v>55.23516358615999</v>
+        <v>134.7658255974665</v>
       </c>
       <c r="R35">
-        <v>497.1164722754399</v>
+        <v>1212.892430377198</v>
       </c>
       <c r="S35">
-        <v>0.01689421855590739</v>
+        <v>0.05878270440505658</v>
       </c>
       <c r="T35">
-        <v>0.01689421855590739</v>
+        <v>0.05878270440505658</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H36">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I36">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J36">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N36">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O36">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P36">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q36">
-        <v>11.25250825835333</v>
+        <v>24.09091248776945</v>
       </c>
       <c r="R36">
-        <v>101.27257432518</v>
+        <v>216.818212389925</v>
       </c>
       <c r="S36">
-        <v>0.003441690428276507</v>
+        <v>0.01050807191911167</v>
       </c>
       <c r="T36">
-        <v>0.003441690428276508</v>
+        <v>0.01050807191911167</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H37">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I37">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J37">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N37">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O37">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P37">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q37">
-        <v>43.54198274671244</v>
+        <v>124.5625462337558</v>
       </c>
       <c r="R37">
-        <v>391.877844720412</v>
+        <v>1121.062916103802</v>
       </c>
       <c r="S37">
-        <v>0.01331774408041811</v>
+        <v>0.0543321966287699</v>
       </c>
       <c r="T37">
-        <v>0.01331774408041812</v>
+        <v>0.0543321966287699</v>
       </c>
     </row>
   </sheetData>
